--- a/data/data_spreadsheet/data.xlsx
+++ b/data/data_spreadsheet/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,36 @@
           <t>File Name</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -445,6 +475,36 @@
           <t>Vehicle Type</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pedestrian</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>motorbike</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>bicycle</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -452,6 +512,36 @@
           <t>Time Initial</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16:25:50</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:25:50</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16:25:50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16:25:50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:25:50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16:25:50</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -459,6 +549,36 @@
           <t>Time Final</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20:35:51</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20:35:51</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20:35:51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20:35:51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20:35:51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20:35:51</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -466,6 +586,36 @@
           <t>Time Total</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4:10:01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4:10:01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4:10:01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4:10:01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4:10:01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4:10:01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -473,6 +623,24 @@
           <t>Total Vehicles</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>5588</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3992</v>
+      </c>
+      <c r="D6" t="n">
+        <v>631</v>
+      </c>
+      <c r="E6" t="n">
+        <v>141</v>
+      </c>
+      <c r="F6" t="n">
+        <v>399</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -480,6 +648,24 @@
           <t>Vehicles from Left</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>3090</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D7" t="n">
+        <v>465</v>
+      </c>
+      <c r="E7" t="n">
+        <v>98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>221</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -487,6 +673,24 @@
           <t>Vehicles from Right</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>2498</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D8" t="n">
+        <v>166</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>178</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -494,6 +698,24 @@
           <t>Total Hours</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>4.166944444444445</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.166944444444445</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.166944444444445</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.166944444444445</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.166944444444445</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.166944444444445</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -501,6 +723,24 @@
           <t>Vehicles per Hour</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>1341.030597960136</v>
+      </c>
+      <c r="C10" t="n">
+        <v>958.0161322578494</v>
+      </c>
+      <c r="D10" t="n">
+        <v>151.4299046730218</v>
+      </c>
+      <c r="E10" t="n">
+        <v>33.83774415038997</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.75361642557162</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.039664022398506</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -508,6 +748,24 @@
           <t>Vehicles per Hour from Left</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>741.5505632957802</v>
+      </c>
+      <c r="C11" t="n">
+        <v>475.8882741150589</v>
+      </c>
+      <c r="D11" t="n">
+        <v>111.5925604959669</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.51843210452636</v>
+      </c>
+      <c r="F11" t="n">
+        <v>53.03646423571762</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.839744017065529</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -515,6 +773,24 @@
           <t>Vehicles per Hour from Right</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>599.4800346643557</v>
+      </c>
+      <c r="C12" t="n">
+        <v>482.1278581427904</v>
+      </c>
+      <c r="D12" t="n">
+        <v>39.83734417705486</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10.31931204586361</v>
+      </c>
+      <c r="F12" t="n">
+        <v>42.717152189854</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.199920005332978</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -522,6 +798,36 @@
           <t>Morning Peak Start Time</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -529,6 +835,36 @@
           <t>Morning Peak End Time</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -536,6 +872,36 @@
           <t>Morning Peak Total Vehicles</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -543,6 +909,36 @@
           <t>Morning Peak Total Hours</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -550,6 +946,36 @@
           <t>Morning Peak Vehicles per Hour</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -557,6 +983,36 @@
           <t>Morning Peak Vehicles from Left</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -564,6 +1020,36 @@
           <t>Morning Peak Vehicles from Right</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -571,6 +1057,36 @@
           <t>Morning Peak VpH from Left</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -578,6 +1094,36 @@
           <t>Morning Peak VpH from Right</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -585,6 +1131,36 @@
           <t>Night Peak Start Time</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -592,6 +1168,36 @@
           <t>Night Peak End Time</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -599,6 +1205,36 @@
           <t>Night Peak Total Vehicles</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -606,6 +1242,36 @@
           <t>Night Peak Total Hours</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -613,6 +1279,36 @@
           <t>Night Peak Vehicles per Hour</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -620,6 +1316,36 @@
           <t>Night Peak Vehicles from Left</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -627,6 +1353,36 @@
           <t>Night Peak Vehicles from Right</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -634,11 +1390,71 @@
           <t>Night Peak Vph from Left</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
           <t>Night Peak Vph from Right</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>

--- a/data/data_spreadsheet/data.xlsx
+++ b/data/data_spreadsheet/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,6 @@
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -440,32 +439,37 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Westgate Compiled,5589,04:10:51,16:25:00.txt</t>
+          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
         </is>
       </c>
     </row>
@@ -482,27 +486,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>bicycle</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>car</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>truck</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bus</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>motorbike</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>pedestrian</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>motorbike</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>bicycle</t>
         </is>
       </c>
     </row>
@@ -514,32 +523,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16:25:50</t>
+          <t>07:47:52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:25:50</t>
+          <t>07:47:52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16:25:50</t>
+          <t>07:47:52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16:25:50</t>
+          <t>07:47:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16:25:50</t>
+          <t>07:47:52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16:25:50</t>
+          <t>07:47:52</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>07:47:52</t>
         </is>
       </c>
     </row>
@@ -551,32 +565,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20:35:51</t>
+          <t>09:15:44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:35:51</t>
+          <t>09:15:44</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20:35:51</t>
+          <t>09:15:44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20:35:51</t>
+          <t>09:15:44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>20:35:51</t>
+          <t>09:15:44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20:35:51</t>
+          <t>09:15:44</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>09:15:44</t>
         </is>
       </c>
     </row>
@@ -588,32 +607,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4:10:01</t>
+          <t>1:27:52</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4:10:01</t>
+          <t>1:27:52</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4:10:01</t>
+          <t>1:27:52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4:10:01</t>
+          <t>1:27:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4:10:01</t>
+          <t>1:27:52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4:10:01</t>
+          <t>1:27:52</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1:27:52</t>
         </is>
       </c>
     </row>
@@ -624,22 +648,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5588</v>
+        <v>554</v>
       </c>
       <c r="C6" t="n">
-        <v>3992</v>
+        <v>170</v>
       </c>
       <c r="D6" t="n">
-        <v>631</v>
+        <v>170</v>
       </c>
       <c r="E6" t="n">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>399</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="H6" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -649,23 +676,26 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3090</v>
+        <v>210</v>
       </c>
       <c r="C7" t="n">
-        <v>1983</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
-        <v>465</v>
+        <v>58</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F7" t="n">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
         <v>16</v>
       </c>
+      <c r="H7" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -674,22 +704,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2498</v>
+        <v>344</v>
       </c>
       <c r="C8" t="n">
-        <v>2009</v>
+        <v>108</v>
       </c>
       <c r="D8" t="n">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -699,22 +732,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.166944444444445</v>
+        <v>1.464444444444444</v>
       </c>
       <c r="C9" t="n">
-        <v>4.166944444444445</v>
+        <v>1.464444444444444</v>
       </c>
       <c r="D9" t="n">
-        <v>4.166944444444445</v>
+        <v>1.464444444444444</v>
       </c>
       <c r="E9" t="n">
-        <v>4.166944444444445</v>
+        <v>1.464444444444444</v>
       </c>
       <c r="F9" t="n">
-        <v>4.166944444444445</v>
+        <v>1.464444444444444</v>
       </c>
       <c r="G9" t="n">
-        <v>4.166944444444445</v>
+        <v>1.464444444444444</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.464444444444444</v>
       </c>
     </row>
     <row r="10">
@@ -724,22 +760,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1341.030597960136</v>
+        <v>378.3004552352049</v>
       </c>
       <c r="C10" t="n">
-        <v>958.0161322578494</v>
+        <v>116.0849772382398</v>
       </c>
       <c r="D10" t="n">
-        <v>151.4299046730218</v>
+        <v>116.0849772382398</v>
       </c>
       <c r="E10" t="n">
-        <v>33.83774415038997</v>
+        <v>61.45675265553869</v>
       </c>
       <c r="F10" t="n">
-        <v>95.75361642557162</v>
+        <v>23.21699544764795</v>
       </c>
       <c r="G10" t="n">
-        <v>5.039664022398506</v>
+        <v>21.16843702579666</v>
+      </c>
+      <c r="H10" t="n">
+        <v>40.28831562974204</v>
       </c>
     </row>
     <row r="11">
@@ -749,22 +788,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>741.5505632957802</v>
+        <v>143.3990895295903</v>
       </c>
       <c r="C11" t="n">
-        <v>475.8882741150589</v>
+        <v>42.33687405159333</v>
       </c>
       <c r="D11" t="n">
-        <v>111.5925604959669</v>
+        <v>39.60546282245827</v>
       </c>
       <c r="E11" t="n">
-        <v>23.51843210452636</v>
+        <v>29.36267071320182</v>
       </c>
       <c r="F11" t="n">
-        <v>53.03646423571762</v>
+        <v>8.194233687405159</v>
       </c>
       <c r="G11" t="n">
-        <v>3.839744017065529</v>
+        <v>10.92564491654021</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.9742033383915</v>
       </c>
     </row>
     <row r="12">
@@ -774,22 +816,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.4800346643557</v>
+        <v>234.9013657056146</v>
       </c>
       <c r="C12" t="n">
-        <v>482.1278581427904</v>
+        <v>73.74810318664643</v>
       </c>
       <c r="D12" t="n">
-        <v>39.83734417705486</v>
+        <v>76.47951441578149</v>
       </c>
       <c r="E12" t="n">
-        <v>10.31931204586361</v>
+        <v>32.09408194233687</v>
       </c>
       <c r="F12" t="n">
-        <v>42.717152189854</v>
+        <v>15.02276176024279</v>
       </c>
       <c r="G12" t="n">
-        <v>1.199920005332978</v>
+        <v>10.24279210925645</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27.31411229135053</v>
       </c>
     </row>
     <row r="13">
@@ -828,6 +873,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -865,6 +915,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -902,6 +957,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -939,6 +999,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -976,6 +1041,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1013,6 +1083,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1050,6 +1125,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1087,6 +1167,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1124,6 +1209,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1161,6 +1251,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1198,6 +1293,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1235,6 +1335,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1272,6 +1377,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1309,6 +1419,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1346,6 +1461,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1383,6 +1503,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1420,6 +1545,11 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1453,6 +1583,11 @@
         </is>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/data/data_spreadsheet/data.xlsx
+++ b/data/data_spreadsheet/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,6 +429,10 @@
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,11 +471,6 @@
           <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,11 +505,6 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>motorbike</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>pedestrian</t>
         </is>
       </c>
@@ -551,11 +545,6 @@
           <t>07:47:52</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>07:47:52</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -593,11 +582,6 @@
           <t>09:15:44</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>09:15:44</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -635,11 +619,6 @@
           <t>1:27:52</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1:27:52</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -663,9 +642,6 @@
         <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>31</v>
-      </c>
-      <c r="H6" t="n">
         <v>59</v>
       </c>
     </row>
@@ -691,9 +667,6 @@
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
-      </c>
-      <c r="H7" t="n">
         <v>19</v>
       </c>
     </row>
@@ -719,9 +692,6 @@
         <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
-      </c>
-      <c r="H8" t="n">
         <v>40</v>
       </c>
     </row>
@@ -749,9 +719,6 @@
       <c r="G9" t="n">
         <v>1.464444444444444</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.464444444444444</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -775,9 +742,6 @@
         <v>23.21699544764795</v>
       </c>
       <c r="G10" t="n">
-        <v>21.16843702579666</v>
-      </c>
-      <c r="H10" t="n">
         <v>40.28831562974204</v>
       </c>
     </row>
@@ -803,9 +767,6 @@
         <v>8.194233687405159</v>
       </c>
       <c r="G11" t="n">
-        <v>10.92564491654021</v>
-      </c>
-      <c r="H11" t="n">
         <v>12.9742033383915</v>
       </c>
     </row>
@@ -831,9 +792,6 @@
         <v>15.02276176024279</v>
       </c>
       <c r="G12" t="n">
-        <v>10.24279210925645</v>
-      </c>
-      <c r="H12" t="n">
         <v>27.31411229135053</v>
       </c>
     </row>
@@ -845,37 +803,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>08:30:12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>08:33:57</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>08:30:12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>08:31:14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>08:30:29</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>08:31:14</t>
         </is>
       </c>
     </row>
@@ -887,37 +840,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>09:15:44</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>09:15:27</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>09:15:44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>09:13:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>09:12:41</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>09:15:44</t>
         </is>
       </c>
     </row>
@@ -927,40 +875,23 @@
           <t>Morning Peak Total Vehicles</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B15" t="n">
+        <v>346</v>
+      </c>
+      <c r="C15" t="n">
+        <v>120</v>
+      </c>
+      <c r="D15" t="n">
+        <v>114</v>
+      </c>
+      <c r="E15" t="n">
+        <v>42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18</v>
+      </c>
+      <c r="G15" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -969,40 +900,23 @@
           <t>Morning Peak Total Hours</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B16" t="n">
+        <v>0.7588888888888888</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7588888888888888</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7086111111111111</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7033333333333333</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7416666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -1011,40 +925,23 @@
           <t>Morning Peak Vehicles per Hour</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B17" t="n">
+        <v>455.9297218155198</v>
+      </c>
+      <c r="C17" t="n">
+        <v>173.4939759036145</v>
+      </c>
+      <c r="D17" t="n">
+        <v>150.2196193265007</v>
+      </c>
+      <c r="E17" t="n">
+        <v>59.27087416699334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>25.59241706161138</v>
+      </c>
+      <c r="G17" t="n">
+        <v>44.49438202247192</v>
       </c>
     </row>
     <row r="18">
@@ -1053,40 +950,23 @@
           <t>Morning Peak Vehicles from Left</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B18" t="n">
+        <v>127</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42</v>
+      </c>
+      <c r="D18" t="n">
+        <v>34</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1095,40 +975,23 @@
           <t>Morning Peak Vehicles from Right</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B19" t="n">
+        <v>219</v>
+      </c>
+      <c r="C19" t="n">
+        <v>78</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>21</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11</v>
+      </c>
+      <c r="G19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1137,40 +1000,23 @@
           <t>Morning Peak VpH from Left</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B20" t="n">
+        <v>167.3499267935578</v>
+      </c>
+      <c r="C20" t="n">
+        <v>60.72289156626506</v>
+      </c>
+      <c r="D20" t="n">
+        <v>44.80234260614935</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29.63543708349667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.952606635071092</v>
+      </c>
+      <c r="G20" t="n">
+        <v>16.17977528089888</v>
       </c>
     </row>
     <row r="21">
@@ -1179,40 +1025,23 @@
           <t>Morning Peak VpH from Right</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B21" t="n">
+        <v>288.579795021962</v>
+      </c>
+      <c r="C21" t="n">
+        <v>112.7710843373494</v>
+      </c>
+      <c r="D21" t="n">
+        <v>105.4172767203514</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29.63543708349667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15.63981042654029</v>
+      </c>
+      <c r="G21" t="n">
+        <v>28.31460674157304</v>
       </c>
     </row>
     <row r="22">
@@ -1251,11 +1080,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1293,11 +1117,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1335,11 +1154,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1377,11 +1191,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1419,11 +1228,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1461,11 +1265,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1503,11 +1302,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1545,11 +1339,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1583,11 +1372,6 @@
         </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/data/data_spreadsheet/data.xlsx
+++ b/data/data_spreadsheet/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,32 +443,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
+          <t>Corporation Compiled,3489,02:53:09,07:30:00.txt</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
+          <t>Corporation Compiled,3489,02:53:09,07:30:00.txt</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>NTU Sample 1,554,01:28:44,07:47:00.txt</t>
+          <t>Corporation Compiled,3489,02:53:09,07:30:00.txt</t>
         </is>
       </c>
     </row>
@@ -485,27 +470,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>car</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>truck</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>bus</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>pedestrian</t>
         </is>
       </c>
     </row>
@@ -517,32 +487,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>07:47:52</t>
+          <t>07:30:52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:47:52</t>
+          <t>07:30:52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>07:47:52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>07:47:52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>07:47:52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>07:47:52</t>
+          <t>07:30:52</t>
         </is>
       </c>
     </row>
@@ -554,32 +509,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09:15:44</t>
+          <t>10:23:09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:15:44</t>
+          <t>10:23:09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09:15:44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>09:15:44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>09:15:44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>09:15:44</t>
+          <t>10:23:09</t>
         </is>
       </c>
     </row>
@@ -591,32 +531,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1:27:52</t>
+          <t>2:52:17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1:27:52</t>
+          <t>2:52:17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1:27:52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1:27:52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1:27:52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1:27:52</t>
+          <t>2:52:17</t>
         </is>
       </c>
     </row>
@@ -627,22 +552,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>554</v>
+        <v>3488</v>
       </c>
       <c r="C6" t="n">
-        <v>170</v>
+        <v>1996</v>
       </c>
       <c r="D6" t="n">
-        <v>170</v>
-      </c>
-      <c r="E6" t="n">
-        <v>90</v>
-      </c>
-      <c r="F6" t="n">
-        <v>34</v>
-      </c>
-      <c r="G6" t="n">
-        <v>59</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7">
@@ -652,22 +568,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210</v>
+        <v>3258</v>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>1872</v>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
-      </c>
-      <c r="E7" t="n">
-        <v>43</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8">
@@ -677,22 +584,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="C8" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D8" t="n">
-        <v>112</v>
-      </c>
-      <c r="E8" t="n">
-        <v>47</v>
-      </c>
-      <c r="F8" t="n">
-        <v>22</v>
-      </c>
-      <c r="G8" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -702,22 +600,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.464444444444444</v>
+        <v>2.871388888888889</v>
       </c>
       <c r="C9" t="n">
-        <v>1.464444444444444</v>
+        <v>2.871388888888889</v>
       </c>
       <c r="D9" t="n">
-        <v>1.464444444444444</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.464444444444444</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.464444444444444</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.464444444444444</v>
+        <v>2.871388888888889</v>
       </c>
     </row>
     <row r="10">
@@ -727,22 +616,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>378.3004552352049</v>
+        <v>1214.743155654445</v>
       </c>
       <c r="C10" t="n">
-        <v>116.0849772382398</v>
+        <v>695.1339847151012</v>
       </c>
       <c r="D10" t="n">
-        <v>116.0849772382398</v>
-      </c>
-      <c r="E10" t="n">
-        <v>61.45675265553869</v>
-      </c>
-      <c r="F10" t="n">
-        <v>23.21699544764795</v>
-      </c>
-      <c r="G10" t="n">
-        <v>40.28831562974204</v>
+        <v>267.1181193769953</v>
       </c>
     </row>
     <row r="11">
@@ -752,22 +632,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143.3990895295903</v>
+        <v>1134.642546193286</v>
       </c>
       <c r="C11" t="n">
-        <v>42.33687405159333</v>
+        <v>651.9493083099545</v>
       </c>
       <c r="D11" t="n">
-        <v>39.60546282245827</v>
-      </c>
-      <c r="E11" t="n">
-        <v>29.36267071320182</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8.194233687405159</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12.9742033383915</v>
+        <v>256.3219502757086</v>
       </c>
     </row>
     <row r="12">
@@ -777,22 +648,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>234.9013657056146</v>
+        <v>80.10060946115895</v>
       </c>
       <c r="C12" t="n">
-        <v>73.74810318664643</v>
+        <v>43.18467640514656</v>
       </c>
       <c r="D12" t="n">
-        <v>76.47951441578149</v>
-      </c>
-      <c r="E12" t="n">
-        <v>32.09408194233687</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15.02276176024279</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.31411229135053</v>
+        <v>10.79616910128664</v>
       </c>
     </row>
     <row r="13">
@@ -803,32 +665,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08:30:12</t>
+          <t>08:00:20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:33:57</t>
+          <t>08:00:40</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>08:30:12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>08:31:14</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>08:30:29</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>08:31:14</t>
+          <t>08:00:20</t>
         </is>
       </c>
     </row>
@@ -840,32 +687,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>09:15:44</t>
+          <t>08:59:57</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:15:27</t>
+          <t>08:59:57</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>09:15:44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>09:13:45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>09:12:41</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>09:15:44</t>
+          <t>08:59:56</t>
         </is>
       </c>
     </row>
@@ -876,22 +708,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>346</v>
+        <v>1357</v>
       </c>
       <c r="C15" t="n">
-        <v>120</v>
+        <v>854</v>
       </c>
       <c r="D15" t="n">
-        <v>114</v>
-      </c>
-      <c r="E15" t="n">
-        <v>42</v>
-      </c>
-      <c r="F15" t="n">
-        <v>18</v>
-      </c>
-      <c r="G15" t="n">
-        <v>33</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16">
@@ -901,22 +724,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7588888888888888</v>
+        <v>0.9936111111111111</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.9880555555555555</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7588888888888888</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7086111111111111</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.7033333333333333</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.7416666666666666</v>
+        <v>0.9933333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -926,22 +740,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>455.9297218155198</v>
+        <v>1365.7254682695</v>
       </c>
       <c r="C17" t="n">
-        <v>173.4939759036145</v>
+        <v>864.323868428451</v>
       </c>
       <c r="D17" t="n">
-        <v>150.2196193265007</v>
-      </c>
-      <c r="E17" t="n">
-        <v>59.27087416699334</v>
-      </c>
-      <c r="F17" t="n">
-        <v>25.59241706161138</v>
-      </c>
-      <c r="G17" t="n">
-        <v>44.49438202247192</v>
+        <v>225.503355704698</v>
       </c>
     </row>
     <row r="18">
@@ -951,22 +756,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127</v>
+        <v>1252</v>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>788</v>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
-      </c>
-      <c r="E18" t="n">
-        <v>21</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
@@ -976,22 +772,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="C19" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>21</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11</v>
-      </c>
-      <c r="G19" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1001,22 +788,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.3499267935578</v>
+        <v>1260.050321498462</v>
       </c>
       <c r="C20" t="n">
-        <v>60.72289156626506</v>
+        <v>797.5260050604443</v>
       </c>
       <c r="D20" t="n">
-        <v>44.80234260614935</v>
-      </c>
-      <c r="E20" t="n">
-        <v>29.63543708349667</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9.952606635071092</v>
-      </c>
-      <c r="G20" t="n">
-        <v>16.17977528089888</v>
+        <v>212.4161073825503</v>
       </c>
     </row>
     <row r="21">
@@ -1026,22 +804,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>288.579795021962</v>
+        <v>105.6751467710372</v>
       </c>
       <c r="C21" t="n">
-        <v>112.7710843373494</v>
+        <v>66.79786336800676</v>
       </c>
       <c r="D21" t="n">
-        <v>105.4172767203514</v>
-      </c>
-      <c r="E21" t="n">
-        <v>29.63543708349667</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15.63981042654029</v>
-      </c>
-      <c r="G21" t="n">
-        <v>28.31460674157304</v>
+        <v>13.08724832214765</v>
       </c>
     </row>
     <row r="22">
@@ -1065,21 +834,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1102,21 +856,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1139,21 +878,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1176,21 +900,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1213,21 +922,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1250,21 +944,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1287,21 +966,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1324,21 +988,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1357,21 +1006,6 @@
         </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
